--- a/audible/category_list/countries.xlsx
+++ b/audible/category_list/countries.xlsx
@@ -14,9 +14,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>countries</t>
+  </si>
+  <si>
+    <t>Complete List</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Francce</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -29,7 +95,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,14 +104,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -54,6 +114,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -67,23 +142,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,14 +222,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,16 +250,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,37 +273,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,13 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,127 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,6 +464,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,18 +541,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,167 +564,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,20 +1035,184 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="21.5333333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.9809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="15.75" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/audible/category_list/countries.xlsx
+++ b/audible/category_list/countries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>countries</t>
   </si>
@@ -22,21 +22,27 @@
     <t>Complete List</t>
   </si>
   <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
     <t>Australia</t>
   </si>
   <si>
+    <t>United States</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
     <t>Canada</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>Francce</t>
   </si>
   <si>
@@ -74,15 +80,6 @@
   </si>
   <si>
     <t>Turkey</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -90,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -120,6 +117,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -129,14 +148,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,21 +159,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,6 +193,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -204,14 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -220,23 +217,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,7 +241,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,13 +256,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,181 +276,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,33 +466,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,11 +516,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +552,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,130 +582,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,7 +1035,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1060,159 +1057,108 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="9:9">
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="9:9">
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="9:9">
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="9:9">
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9">
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="9:9">
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="9:9">
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9">
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="9:9">
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="9:9">
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="9:9">
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="9:9">
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" t="s">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+    </row>
+    <row r="21" spans="9:9">
+      <c r="I21" t="s">
         <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/audible/category_list/countries.xlsx
+++ b/audible/category_list/countries.xlsx
@@ -22,64 +22,64 @@
     <t>Complete List</t>
   </si>
   <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Francce</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
     <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Francce</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Turkey</t>
   </si>
 </sst>
 </file>
@@ -88,9 +88,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,14 +126,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,24 +155,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,16 +186,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +209,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -224,24 +232,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,175 +276,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,13 +464,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +503,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -519,21 +534,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,130 +582,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,108 +1057,108 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
         <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
         <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="9:9">
       <c r="I5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="9:9">
       <c r="I6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="9:9">
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="9:9">
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="9:9">
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="9:9">
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="9:9">
       <c r="I12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="9:9">
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="9:9">
       <c r="I15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="9:9">
       <c r="I16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="9:9">
       <c r="I17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="9:9">
       <c r="I19" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="9:9">
       <c r="I20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="9:9">
       <c r="I21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
